--- a/Payroll/Content/REPORTES/NOMINA/HCBajas_E4_A2021_NP1_TP3_A.xlsx
+++ b/Payroll/Content/REPORTES/NOMINA/HCBajas_E4_A2021_NP1_TP3_A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>AÑO</t>
   </si>
@@ -104,12 +104,6 @@
     <t>ULT. SDI</t>
   </si>
   <si>
-    <t>(1)Asimilados a salarios</t>
-  </si>
-  <si>
-    <t>(1)Destajo</t>
-  </si>
-  <si>
     <t>(1)Sueldo</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>(24)Dias Vacaciones Proporcionales</t>
   </si>
   <si>
-    <t>(24)Importe Vacaciones</t>
-  </si>
-  <si>
     <t>(25)Dias Vacs Años Anteriores</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t>(1075)Prestamo Cliente 2</t>
   </si>
   <si>
-    <t>(1075)Retardos</t>
-  </si>
-  <si>
     <t>(1106)Adeudo Infonavit</t>
   </si>
   <si>
@@ -185,127 +173,91 @@
     <t>REJUM</t>
   </si>
   <si>
-    <t>LUQUE</t>
-  </si>
-  <si>
-    <t>PENA</t>
-  </si>
-  <si>
-    <t>RUBEN</t>
-  </si>
-  <si>
-    <t>39967831882</t>
-  </si>
-  <si>
-    <t>LUPR780602N79</t>
-  </si>
-  <si>
-    <t>LUPR780602HHGQXB08</t>
-  </si>
-  <si>
-    <t>GTE0870</t>
-  </si>
-  <si>
-    <t>GERENTE REGIONAL INDIVIDUAL</t>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>JUAN ARTURO</t>
+  </si>
+  <si>
+    <t>12028410277</t>
+  </si>
+  <si>
+    <t>MOSJ840119JB6</t>
+  </si>
+  <si>
+    <t>MOSJ840119HGTRNN05</t>
+  </si>
+  <si>
+    <t>GST001</t>
+  </si>
+  <si>
+    <t>GESTOR DE COBRANZA</t>
   </si>
   <si>
     <t>ESPECIALISTAS/GESTORES</t>
   </si>
   <si>
-    <t>GCA0063</t>
-  </si>
-  <si>
-    <t>GERENCIA REGIONAL CREDITO INDIVIDUAL ENTRENAMIENTO</t>
-  </si>
-  <si>
-    <t>GERENCIA REGIONAL</t>
+    <t>GCA0004C</t>
+  </si>
+  <si>
+    <t>GERENCIA DE COBRANZA</t>
+  </si>
+  <si>
+    <t>REG00021</t>
+  </si>
+  <si>
+    <t>GUANAJUATO GRUPAL</t>
+  </si>
+  <si>
+    <t>SUC210128</t>
+  </si>
+  <si>
+    <t>LEON GRUPAL</t>
+  </si>
+  <si>
+    <t>21/06/2010</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ARAUJO</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>12896023335</t>
+  </si>
+  <si>
+    <t>AAFR601224GC3</t>
+  </si>
+  <si>
+    <t>AAXF601224HGTRXR09</t>
+  </si>
+  <si>
+    <t>ESP002</t>
+  </si>
+  <si>
+    <t>ESPECIALISTA DE CREDITO INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>SUC220085</t>
+  </si>
+  <si>
+    <t>LEON INDIVIDUAL</t>
   </si>
   <si>
     <t>REG00022</t>
   </si>
   <si>
     <t>GUANAJUATO INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>SUC220085</t>
-  </si>
-  <si>
-    <t>LEON INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>27/02/2008</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>JUAN ARTURO</t>
-  </si>
-  <si>
-    <t>12028410277</t>
-  </si>
-  <si>
-    <t>MOSJ840119JB6</t>
-  </si>
-  <si>
-    <t>MOSJ840119HGTRNN05</t>
-  </si>
-  <si>
-    <t>GST001</t>
-  </si>
-  <si>
-    <t>GESTOR DE COBRANZA</t>
-  </si>
-  <si>
-    <t>GCA0004C</t>
-  </si>
-  <si>
-    <t>GERENCIA DE COBRANZA</t>
-  </si>
-  <si>
-    <t>REG00021</t>
-  </si>
-  <si>
-    <t>GUANAJUATO GRUPAL</t>
-  </si>
-  <si>
-    <t>SUC210128</t>
-  </si>
-  <si>
-    <t>LEON GRUPAL</t>
-  </si>
-  <si>
-    <t>21/06/2010</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>ARAUJO</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>12896023335</t>
-  </si>
-  <si>
-    <t>AAFR601224GC3</t>
-  </si>
-  <si>
-    <t>AAXF601224HGTRXR09</t>
-  </si>
-  <si>
-    <t>ESP002</t>
-  </si>
-  <si>
-    <t>ESPECIALISTA DE CREDITO INDIVIDUAL</t>
   </si>
   <si>
     <t>01/07/2019</t>
@@ -382,7 +334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:BE4"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -509,13 +461,13 @@
       <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AS1" s="3" t="s">
@@ -539,23 +491,11 @@
       <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="BA1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -569,162 +509,150 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10005</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="5">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="5">
+        <v>38</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="V2" s="5">
+        <v>727</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="5">
-        <v>39</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="5">
-        <v>1029</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="AA2" s="6">
-        <v>18168</v>
+        <v>6719.7</v>
       </c>
       <c r="AB2" s="5">
-        <v>2551</v>
+        <v>2447</v>
       </c>
       <c r="AC2" s="5">
-        <v>2551</v>
+        <v>2447</v>
       </c>
       <c r="AD2" s="6">
-        <v>637.15</v>
+        <v>235.66</v>
       </c>
       <c r="AF2" s="6">
-        <v>4844.8</v>
+        <v>2239.9</v>
       </c>
       <c r="AG2" s="6">
-        <v>4844.8</v>
+        <v>377.41</v>
       </c>
       <c r="AH2" s="6">
-        <v>4844.8</v>
+        <v>2307.4</v>
       </c>
       <c r="AI2" s="6">
-        <v>248.88</v>
+        <v>10751.52</v>
       </c>
       <c r="AJ2" s="6">
-        <v>8468.44</v>
+        <v>576.85</v>
       </c>
       <c r="AK2" s="6">
-        <v>8468.44</v>
+        <v>28631.44</v>
       </c>
       <c r="AL2" s="6">
-        <v>29068.8</v>
+        <v>50</v>
       </c>
       <c r="AM2" s="6">
-        <v>2117.11</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>74</v>
+        <v>846.49</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>2790.3</v>
       </c>
       <c r="AO2" s="6">
-        <v>50</v>
+        <v>48571.31</v>
       </c>
       <c r="AP2" s="6">
-        <v>2405.43</v>
+        <v>10280.82</v>
       </c>
       <c r="AQ2" s="6">
-        <v>6453.76</v>
+        <v>30.37</v>
       </c>
       <c r="AR2" s="6">
-        <v>53657.22</v>
-      </c>
-      <c r="AS2" s="6">
-        <v>11806.6</v>
+        <v>312.5</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="AT2" s="6">
-        <v>1006.15</v>
+        <v>144.64</v>
       </c>
       <c r="AU2" s="6">
-        <v>750</v>
+        <v>159.43</v>
       </c>
       <c r="AV2" s="6">
-        <v>1530.77</v>
+        <v>147.74</v>
       </c>
       <c r="AW2" s="6">
-        <v>126.73</v>
+        <v>29.34</v>
       </c>
       <c r="AX2" s="6">
-        <v>126.73</v>
-      </c>
-      <c r="AY2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ2" s="6">
-        <v>207.18</v>
-      </c>
-      <c r="BA2" s="6">
-        <v>24.64</v>
-      </c>
-      <c r="BB2" s="6">
-        <v>22.18</v>
-      </c>
-      <c r="BC2" s="6">
-        <v>15474.25</v>
-      </c>
-      <c r="BD2" s="7">
-        <v>38182.97</v>
-      </c>
-      <c r="BE2" s="8">
+        <v>26.41</v>
+      </c>
+      <c r="AY2" s="6">
+        <v>11131.25</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>37440.06</v>
+      </c>
+      <c r="BA2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -739,332 +667,150 @@
         <v>4</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5">
-        <v>10005</v>
+        <v>11690</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="N3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="5">
+        <v>39</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="V3" s="5">
+        <v>1029</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y3" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" s="5">
-        <v>38</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" s="5">
-        <v>727</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="Z3" s="0" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AA3" s="6">
-        <v>6719.7</v>
+        <v>5500</v>
       </c>
       <c r="AB3" s="5">
-        <v>2447</v>
+        <v>1471</v>
       </c>
       <c r="AC3" s="5">
-        <v>2447</v>
+        <v>1471</v>
       </c>
       <c r="AD3" s="6">
-        <v>235.66</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="6">
-        <v>2239.9</v>
+        <v>1833.33</v>
       </c>
       <c r="AG3" s="6">
-        <v>2239.9</v>
+        <v>308.9</v>
       </c>
       <c r="AH3" s="6">
-        <v>2239.9</v>
-      </c>
-      <c r="AI3" s="6">
-        <v>377.41</v>
+        <v>904.11</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="AJ3" s="6">
-        <v>2307.4</v>
+        <v>226.03</v>
       </c>
       <c r="AK3" s="6">
-        <v>2307.4</v>
-      </c>
-      <c r="AL3" s="6">
-        <v>10751.52</v>
+        <v>3562.19</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="AM3" s="6">
-        <v>576.85</v>
-      </c>
-      <c r="AN3" s="6">
-        <v>28631.44</v>
+        <v>392.47</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="AO3" s="6">
-        <v>50</v>
+        <v>7227.03</v>
       </c>
       <c r="AP3" s="6">
-        <v>846.49</v>
-      </c>
-      <c r="AQ3" s="6">
-        <v>2790.3</v>
-      </c>
-      <c r="AR3" s="6">
-        <v>48571.31</v>
-      </c>
-      <c r="AS3" s="6">
-        <v>10280.82</v>
-      </c>
-      <c r="AT3" s="6">
-        <v>30.37</v>
-      </c>
-      <c r="AU3" s="6">
-        <v>312.5</v>
+        <v>540.4</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AW3" s="6">
-        <v>144.64</v>
+        <v>23.87</v>
       </c>
       <c r="AX3" s="6">
-        <v>144.64</v>
+        <v>21.49</v>
       </c>
       <c r="AY3" s="6">
-        <v>159.43</v>
-      </c>
-      <c r="AZ3" s="6">
-        <v>147.74</v>
-      </c>
-      <c r="BA3" s="6">
-        <v>29.34</v>
-      </c>
-      <c r="BB3" s="6">
-        <v>26.41</v>
-      </c>
-      <c r="BC3" s="6">
-        <v>11131.25</v>
-      </c>
-      <c r="BD3" s="7">
-        <v>37440.06</v>
-      </c>
-      <c r="BE3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="5">
-        <v>11690</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" s="5">
-        <v>39</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V4" s="5">
-        <v>1029</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>5500</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>1471</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>1471</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>1833.33</v>
-      </c>
-      <c r="AG4" s="6">
-        <v>1833.33</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>1833.33</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>308.9</v>
-      </c>
-      <c r="AJ4" s="6">
-        <v>904.11</v>
-      </c>
-      <c r="AK4" s="6">
-        <v>904.11</v>
-      </c>
-      <c r="AL4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM4" s="6">
-        <v>226.03</v>
-      </c>
-      <c r="AN4" s="6">
-        <v>3562.19</v>
-      </c>
-      <c r="AO4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP4" s="6">
-        <v>392.47</v>
-      </c>
-      <c r="AQ4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR4" s="6">
-        <v>7227.03</v>
-      </c>
-      <c r="AS4" s="6">
-        <v>540.4</v>
-      </c>
-      <c r="AT4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA4" s="6">
-        <v>23.87</v>
-      </c>
-      <c r="BB4" s="6">
-        <v>21.49</v>
-      </c>
-      <c r="BC4" s="6">
         <v>585.76</v>
       </c>
-      <c r="BD4" s="7">
+      <c r="AZ3" s="7">
         <v>6641.27</v>
       </c>
-      <c r="BE4" s="8">
+      <c r="BA3" s="8">
         <v>0</v>
       </c>
     </row>
